--- a/Determinantes_eficiencia_SFA_2014-2023.xlsx
+++ b/Determinantes_eficiencia_SFA_2014-2023.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johns\Desktop\memoria_2024\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A525E92B-C97A-4CF6-BC30-D55094A05EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B7E8D-059A-4EEA-9208-CA8B9A044FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Top 10 más influyentes" sheetId="2" r:id="rId1"/>
-    <sheet name="Random Forest" sheetId="3" r:id="rId2"/>
-    <sheet name="Determinantes" sheetId="1" r:id="rId3"/>
+    <sheet name="Determinantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Top 10 más influyentes" sheetId="2" r:id="rId2"/>
+    <sheet name="Random Forest" sheetId="3" r:id="rId3"/>
     <sheet name="Determinantes (Sensibilidad)" sheetId="4" r:id="rId4"/>
+    <sheet name="Ranking (Sensibilidad)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="237">
   <si>
     <t>Frecuencia</t>
   </si>
@@ -1974,6 +1975,159 @@
       </rPr>
       <t xml:space="preserve"> Radiografía de hombro, fémur, rodilla, pierna, costilla o esternón Frontal y Lateral</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kinesiologia y Fisioterapia: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimulación eléctrica (interferencial, diadinámicas, exponenciales, galvánica, faradica, ultraexcitante) (proc,aut,)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Intervenciones Quirurgicas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ODONTOLOGIA (COD 27-03+COD 27-02-001) Aranc.Fonasa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Otras consultas y Atención Médica: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consulta Médica de Especialidad en Obstetricia y Ginecología</t>
+    </r>
+  </si>
+  <si>
+    <t>PROC. DE GASTROENTEROLOGIA Colangiopancreatografia retrograda, por intubacion endos-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Examenes de Diagnostico:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EX, Radiologicos Simples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Examenes de Diagnostico: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ecotomografias ( Sin Ecografía Obstetr, Y Abdominal )</t>
+    </r>
+  </si>
+  <si>
+    <t>Apoyo psicosocial en niños (as) Hospitalizados: Total de egresos (en el periodo)</t>
+  </si>
+  <si>
+    <t>Examenes de Diagnostico: EX. Radiológicos Simples</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atención Cerrada:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Día cama hospitalización integral medicina, cirugía, pediatría, obstetricia-ginecología y especialidades (sala 3 camas o más) (Hosp. Baja Complejidad)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consultas de especialidad en hospitales de baja complejidad y establecimientos de APS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media </t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,6 +2472,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4512,7 +4672,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4664,6 +4824,27 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4673,30 +4854,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4709,29 +4893,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="917">
@@ -5944,919 +6122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E8EFAF-9836-457F-B8DE-20AD52A9FA6C}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="43.53125" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F2E509-D55C-4156-B801-06A1DA60528E}">
-  <dimension ref="A1:U11"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A1" s="15"/>
-      <c r="B1" s="51">
-        <v>2014</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54">
-        <v>2015</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="51">
-        <v>2016</v>
-      </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="51">
-        <v>2017</v>
-      </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="51">
-        <v>2018</v>
-      </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="51">
-        <v>2019</v>
-      </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="51">
-        <v>2020</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="51">
-        <v>2021</v>
-      </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="51">
-        <v>2022</v>
-      </c>
-      <c r="S1" s="52"/>
-      <c r="T1" s="51">
-        <v>2023</v>
-      </c>
-      <c r="U1" s="53"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="20">
-        <v>100</v>
-      </c>
-      <c r="B3" s="21">
-        <v>8.4130000000000003E-3</v>
-      </c>
-      <c r="C3" s="22">
-        <v>64.12</v>
-      </c>
-      <c r="D3" s="23">
-        <v>8.3049999999999999E-3</v>
-      </c>
-      <c r="E3" s="24">
-        <v>53.12</v>
-      </c>
-      <c r="F3" s="23">
-        <v>9.9069999999999991E-3</v>
-      </c>
-      <c r="G3" s="24">
-        <v>65.06</v>
-      </c>
-      <c r="H3" s="23">
-        <v>8.2279999999999992E-3</v>
-      </c>
-      <c r="I3" s="27">
-        <v>57.8</v>
-      </c>
-      <c r="J3" s="23">
-        <v>9.1870000000000007E-3</v>
-      </c>
-      <c r="K3" s="25">
-        <v>65.17</v>
-      </c>
-      <c r="L3" s="31">
-        <v>9.1760000000000001E-3</v>
-      </c>
-      <c r="M3" s="32">
-        <v>64.58</v>
-      </c>
-      <c r="N3" s="31">
-        <v>1.026E-2</v>
-      </c>
-      <c r="O3" s="32">
-        <v>52.86</v>
-      </c>
-      <c r="P3" s="31">
-        <v>9.3710000000000009E-3</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>33.33</v>
-      </c>
-      <c r="R3" s="31">
-        <v>1.174E-2</v>
-      </c>
-      <c r="S3" s="32">
-        <v>35.51</v>
-      </c>
-      <c r="T3" s="31">
-        <v>7.6439999999999998E-3</v>
-      </c>
-      <c r="U3" s="33">
-        <v>39.909999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="20">
-        <v>200</v>
-      </c>
-      <c r="B4" s="21">
-        <v>8.2120000000000005E-3</v>
-      </c>
-      <c r="C4" s="22">
-        <v>62.58</v>
-      </c>
-      <c r="D4" s="23">
-        <v>7.9570000000000005E-3</v>
-      </c>
-      <c r="E4" s="24">
-        <v>50.9</v>
-      </c>
-      <c r="F4" s="23">
-        <v>9.8510000000000004E-3</v>
-      </c>
-      <c r="G4" s="24">
-        <v>64.7</v>
-      </c>
-      <c r="H4" s="23">
-        <v>8.3479999999999995E-3</v>
-      </c>
-      <c r="I4" s="27">
-        <v>58.64</v>
-      </c>
-      <c r="J4" s="23">
-        <v>9.1070000000000005E-3</v>
-      </c>
-      <c r="K4" s="25">
-        <v>64.61</v>
-      </c>
-      <c r="L4" s="31">
-        <v>9.2090000000000002E-3</v>
-      </c>
-      <c r="M4" s="32">
-        <v>64.81</v>
-      </c>
-      <c r="N4" s="31">
-        <v>1.034E-2</v>
-      </c>
-      <c r="O4" s="32">
-        <v>53.31</v>
-      </c>
-      <c r="P4" s="31">
-        <v>9.7660000000000004E-3</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>34.74</v>
-      </c>
-      <c r="R4" s="31">
-        <v>1.128E-2</v>
-      </c>
-      <c r="S4" s="32">
-        <v>34.1</v>
-      </c>
-      <c r="T4" s="31">
-        <v>7.5189999999999996E-3</v>
-      </c>
-      <c r="U4" s="33">
-        <v>39.26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="20">
-        <v>300</v>
-      </c>
-      <c r="B5" s="21">
-        <v>7.9740000000000002E-3</v>
-      </c>
-      <c r="C5" s="22">
-        <v>60.77</v>
-      </c>
-      <c r="D5" s="23">
-        <v>7.9749999999999995E-3</v>
-      </c>
-      <c r="E5" s="24">
-        <v>51.01</v>
-      </c>
-      <c r="F5" s="23">
-        <v>1.0240000000000001E-2</v>
-      </c>
-      <c r="G5" s="24">
-        <v>67.23</v>
-      </c>
-      <c r="H5" s="23">
-        <v>8.345E-3</v>
-      </c>
-      <c r="I5" s="27">
-        <v>58.62</v>
-      </c>
-      <c r="J5" s="23">
-        <v>9.0379999999999992E-3</v>
-      </c>
-      <c r="K5" s="25">
-        <v>64.12</v>
-      </c>
-      <c r="L5" s="31">
-        <v>9.1039999999999992E-3</v>
-      </c>
-      <c r="M5" s="32">
-        <v>64.069999999999993</v>
-      </c>
-      <c r="N5" s="31">
-        <v>1.0410000000000001E-2</v>
-      </c>
-      <c r="O5" s="32">
-        <v>53.64</v>
-      </c>
-      <c r="P5" s="31">
-        <v>9.4590000000000004E-3</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>33.64</v>
-      </c>
-      <c r="R5" s="31">
-        <v>1.162E-2</v>
-      </c>
-      <c r="S5" s="32">
-        <v>35.14</v>
-      </c>
-      <c r="T5" s="31">
-        <v>7.5589999999999997E-3</v>
-      </c>
-      <c r="U5" s="33">
-        <v>39.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="20">
-        <v>400</v>
-      </c>
-      <c r="B6" s="21">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="C6" s="22">
-        <v>60.89</v>
-      </c>
-      <c r="D6" s="23">
-        <v>8.0160000000000006E-3</v>
-      </c>
-      <c r="E6" s="24">
-        <v>51.27</v>
-      </c>
-      <c r="F6" s="23">
-        <v>1.0319999999999999E-2</v>
-      </c>
-      <c r="G6" s="24">
-        <v>67.790000000000006</v>
-      </c>
-      <c r="H6" s="23">
-        <v>8.345E-3</v>
-      </c>
-      <c r="I6" s="27">
-        <v>58.62</v>
-      </c>
-      <c r="J6" s="23">
-        <v>9.0159999999999997E-3</v>
-      </c>
-      <c r="K6" s="25">
-        <v>63.96</v>
-      </c>
-      <c r="L6" s="31">
-        <v>9.0500000000000008E-3</v>
-      </c>
-      <c r="M6" s="32">
-        <v>63.69</v>
-      </c>
-      <c r="N6" s="31">
-        <v>1.03E-2</v>
-      </c>
-      <c r="O6" s="32">
-        <v>53.08</v>
-      </c>
-      <c r="P6" s="31">
-        <v>9.5040000000000003E-3</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="R6" s="31">
-        <v>1.159E-2</v>
-      </c>
-      <c r="S6" s="32">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="T6" s="31">
-        <v>7.5940000000000001E-3</v>
-      </c>
-      <c r="U6" s="33">
-        <v>39.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="20">
-        <v>500</v>
-      </c>
-      <c r="B7" s="21">
-        <v>7.9489999999999995E-3</v>
-      </c>
-      <c r="C7" s="22">
-        <v>60.58</v>
-      </c>
-      <c r="D7" s="23">
-        <v>8.1040000000000001E-3</v>
-      </c>
-      <c r="E7" s="24">
-        <v>51.84</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1.0279999999999999E-2</v>
-      </c>
-      <c r="G7" s="24">
-        <v>67.489999999999995</v>
-      </c>
-      <c r="H7" s="23">
-        <v>8.4349999999999998E-3</v>
-      </c>
-      <c r="I7" s="27">
-        <v>59.25</v>
-      </c>
-      <c r="J7" s="23">
-        <v>9.0600000000000003E-3</v>
-      </c>
-      <c r="K7" s="25">
-        <v>64.27</v>
-      </c>
-      <c r="L7" s="31">
-        <v>9.0100000000000006E-3</v>
-      </c>
-      <c r="M7" s="32">
-        <v>63.41</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1.0240000000000001E-2</v>
-      </c>
-      <c r="O7" s="32">
-        <v>52.76</v>
-      </c>
-      <c r="P7" s="31">
-        <v>9.5490000000000002E-3</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>33.96</v>
-      </c>
-      <c r="R7" s="31">
-        <v>1.167E-2</v>
-      </c>
-      <c r="S7" s="32">
-        <v>35.28</v>
-      </c>
-      <c r="T7" s="31">
-        <v>7.607E-3</v>
-      </c>
-      <c r="U7" s="33">
-        <v>39.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="20">
-        <v>600</v>
-      </c>
-      <c r="B8" s="21">
-        <v>8.0319999999999992E-3</v>
-      </c>
-      <c r="C8" s="22">
-        <v>61.21</v>
-      </c>
-      <c r="D8" s="23">
-        <v>8.1449999999999995E-3</v>
-      </c>
-      <c r="E8" s="24">
-        <v>52.1</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1.025E-2</v>
-      </c>
-      <c r="G8" s="24">
-        <v>67.319999999999993</v>
-      </c>
-      <c r="H8" s="23">
-        <v>8.3979999999999992E-3</v>
-      </c>
-      <c r="I8" s="27">
-        <v>58.99</v>
-      </c>
-      <c r="J8" s="23">
-        <v>9.0969999999999992E-3</v>
-      </c>
-      <c r="K8" s="25">
-        <v>64.53</v>
-      </c>
-      <c r="L8" s="31">
-        <v>9.0570000000000008E-3</v>
-      </c>
-      <c r="M8" s="32">
-        <v>63.74</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1.0240000000000001E-2</v>
-      </c>
-      <c r="O8" s="32">
-        <v>52.75</v>
-      </c>
-      <c r="P8" s="31">
-        <v>9.4979999999999995E-3</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>33.78</v>
-      </c>
-      <c r="R8" s="31">
-        <v>1.159E-2</v>
-      </c>
-      <c r="S8" s="32">
-        <v>35.06</v>
-      </c>
-      <c r="T8" s="31">
-        <v>7.659E-3</v>
-      </c>
-      <c r="U8" s="33">
-        <v>39.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="20">
-        <v>700</v>
-      </c>
-      <c r="B9" s="21">
-        <v>7.9909999999999998E-3</v>
-      </c>
-      <c r="C9" s="22">
-        <v>60.9</v>
-      </c>
-      <c r="D9" s="23">
-        <v>8.1530000000000005E-3</v>
-      </c>
-      <c r="E9" s="24">
-        <v>52.15</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1.025E-2</v>
-      </c>
-      <c r="G9" s="24">
-        <v>67.31</v>
-      </c>
-      <c r="H9" s="23">
-        <v>8.3899999999999999E-3</v>
-      </c>
-      <c r="I9" s="27">
-        <v>58.94</v>
-      </c>
-      <c r="J9" s="23">
-        <v>9.0939999999999997E-3</v>
-      </c>
-      <c r="K9" s="25">
-        <v>64.510000000000005</v>
-      </c>
-      <c r="L9" s="31">
-        <v>8.9980000000000008E-3</v>
-      </c>
-      <c r="M9" s="32">
-        <v>63.32</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1.022E-2</v>
-      </c>
-      <c r="O9" s="32">
-        <v>52.69</v>
-      </c>
-      <c r="P9" s="31">
-        <v>9.469E-3</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>33.68</v>
-      </c>
-      <c r="R9" s="31">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="S9" s="32">
-        <v>35.07</v>
-      </c>
-      <c r="T9" s="31">
-        <v>7.6249999999999998E-3</v>
-      </c>
-      <c r="U9" s="33">
-        <v>39.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="56">
-        <v>0.50419270000000005</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="62">
-        <v>0.69247040000000004</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="56">
-        <v>0.67874590000000001</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="56">
-        <v>0.58336699999999997</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="56">
-        <v>0.61826159999999997</v>
-      </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="56">
-        <v>0.54710139999999996</v>
-      </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="56">
-        <v>0.43321559999999998</v>
-      </c>
-      <c r="O10" s="66"/>
-      <c r="P10" s="56">
-        <v>0.6929109</v>
-      </c>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="56">
-        <v>0.60125010000000001</v>
-      </c>
-      <c r="S10" s="66"/>
-      <c r="T10" s="56">
-        <v>0.63336369999999997</v>
-      </c>
-      <c r="U10" s="57"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="58">
-        <v>7.4139079999999996E-2</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="64">
-        <v>6.8544190000000005E-2</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="58">
-        <v>7.0021189999999997E-2</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="58">
-        <v>7.0281330000000003E-2</v>
-      </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="58">
-        <v>7.3017899999999997E-2</v>
-      </c>
-      <c r="K11" s="59"/>
-      <c r="L11" s="58">
-        <v>8.2539769999999998E-2</v>
-      </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="58">
-        <v>9.3843330000000003E-2</v>
-      </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="58">
-        <v>8.7645230000000005E-2</v>
-      </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="58">
-        <v>0.10673000000000001</v>
-      </c>
-      <c r="S11" s="61"/>
-      <c r="T11" s="58">
-        <v>7.9979529999999993E-2</v>
-      </c>
-      <c r="U11" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6872,46 +6142,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="E1" s="51">
+      <c r="E1" s="58">
         <v>2014</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51">
+      <c r="F1" s="59"/>
+      <c r="G1" s="58">
         <v>2015</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54">
+      <c r="H1" s="60"/>
+      <c r="I1" s="68">
         <v>2016</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="51">
+      <c r="J1" s="69"/>
+      <c r="K1" s="58">
         <v>2017</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="51">
+      <c r="L1" s="59"/>
+      <c r="M1" s="58">
         <v>2018</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51">
+      <c r="N1" s="59"/>
+      <c r="O1" s="58">
         <v>2019</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="51">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="58">
         <v>2020</v>
       </c>
-      <c r="R1" s="52"/>
-      <c r="S1" s="51">
+      <c r="R1" s="59"/>
+      <c r="S1" s="58">
         <v>2021</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="51">
+      <c r="T1" s="59"/>
+      <c r="U1" s="58">
         <v>2022</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="51">
+      <c r="V1" s="59"/>
+      <c r="W1" s="58">
         <v>2023</v>
       </c>
-      <c r="X1" s="53"/>
+      <c r="X1" s="60"/>
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -9938,12 +9208,920 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E8EFAF-9836-457F-B8DE-20AD52A9FA6C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="43.53125" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F2E509-D55C-4156-B801-06A1DA60528E}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="15"/>
+      <c r="B1" s="58">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="68">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="58">
+        <v>2016</v>
+      </c>
+      <c r="G1" s="59"/>
+      <c r="H1" s="58">
+        <v>2017</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="58">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="60"/>
+      <c r="L1" s="58">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="59"/>
+      <c r="N1" s="58">
+        <v>2020</v>
+      </c>
+      <c r="O1" s="59"/>
+      <c r="P1" s="58">
+        <v>2021</v>
+      </c>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="58">
+        <v>2022</v>
+      </c>
+      <c r="S1" s="59"/>
+      <c r="T1" s="58">
+        <v>2023</v>
+      </c>
+      <c r="U1" s="60"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" s="20">
+        <v>100</v>
+      </c>
+      <c r="B3" s="21">
+        <v>8.4130000000000003E-3</v>
+      </c>
+      <c r="C3" s="22">
+        <v>64.12</v>
+      </c>
+      <c r="D3" s="23">
+        <v>8.3049999999999999E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <v>53.12</v>
+      </c>
+      <c r="F3" s="23">
+        <v>9.9069999999999991E-3</v>
+      </c>
+      <c r="G3" s="24">
+        <v>65.06</v>
+      </c>
+      <c r="H3" s="23">
+        <v>8.2279999999999992E-3</v>
+      </c>
+      <c r="I3" s="27">
+        <v>57.8</v>
+      </c>
+      <c r="J3" s="23">
+        <v>9.1870000000000007E-3</v>
+      </c>
+      <c r="K3" s="25">
+        <v>65.17</v>
+      </c>
+      <c r="L3" s="31">
+        <v>9.1760000000000001E-3</v>
+      </c>
+      <c r="M3" s="32">
+        <v>64.58</v>
+      </c>
+      <c r="N3" s="31">
+        <v>1.026E-2</v>
+      </c>
+      <c r="O3" s="32">
+        <v>52.86</v>
+      </c>
+      <c r="P3" s="31">
+        <v>9.3710000000000009E-3</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>33.33</v>
+      </c>
+      <c r="R3" s="31">
+        <v>1.174E-2</v>
+      </c>
+      <c r="S3" s="32">
+        <v>35.51</v>
+      </c>
+      <c r="T3" s="31">
+        <v>7.6439999999999998E-3</v>
+      </c>
+      <c r="U3" s="33">
+        <v>39.909999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" s="20">
+        <v>200</v>
+      </c>
+      <c r="B4" s="21">
+        <v>8.2120000000000005E-3</v>
+      </c>
+      <c r="C4" s="22">
+        <v>62.58</v>
+      </c>
+      <c r="D4" s="23">
+        <v>7.9570000000000005E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>50.9</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9.8510000000000004E-3</v>
+      </c>
+      <c r="G4" s="24">
+        <v>64.7</v>
+      </c>
+      <c r="H4" s="23">
+        <v>8.3479999999999995E-3</v>
+      </c>
+      <c r="I4" s="27">
+        <v>58.64</v>
+      </c>
+      <c r="J4" s="23">
+        <v>9.1070000000000005E-3</v>
+      </c>
+      <c r="K4" s="25">
+        <v>64.61</v>
+      </c>
+      <c r="L4" s="31">
+        <v>9.2090000000000002E-3</v>
+      </c>
+      <c r="M4" s="32">
+        <v>64.81</v>
+      </c>
+      <c r="N4" s="31">
+        <v>1.034E-2</v>
+      </c>
+      <c r="O4" s="32">
+        <v>53.31</v>
+      </c>
+      <c r="P4" s="31">
+        <v>9.7660000000000004E-3</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>34.74</v>
+      </c>
+      <c r="R4" s="31">
+        <v>1.128E-2</v>
+      </c>
+      <c r="S4" s="32">
+        <v>34.1</v>
+      </c>
+      <c r="T4" s="31">
+        <v>7.5189999999999996E-3</v>
+      </c>
+      <c r="U4" s="33">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="20">
+        <v>300</v>
+      </c>
+      <c r="B5" s="21">
+        <v>7.9740000000000002E-3</v>
+      </c>
+      <c r="C5" s="22">
+        <v>60.77</v>
+      </c>
+      <c r="D5" s="23">
+        <v>7.9749999999999995E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>51.01</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="G5" s="24">
+        <v>67.23</v>
+      </c>
+      <c r="H5" s="23">
+        <v>8.345E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>58.62</v>
+      </c>
+      <c r="J5" s="23">
+        <v>9.0379999999999992E-3</v>
+      </c>
+      <c r="K5" s="25">
+        <v>64.12</v>
+      </c>
+      <c r="L5" s="31">
+        <v>9.1039999999999992E-3</v>
+      </c>
+      <c r="M5" s="32">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="N5" s="31">
+        <v>1.0410000000000001E-2</v>
+      </c>
+      <c r="O5" s="32">
+        <v>53.64</v>
+      </c>
+      <c r="P5" s="31">
+        <v>9.4590000000000004E-3</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>33.64</v>
+      </c>
+      <c r="R5" s="31">
+        <v>1.162E-2</v>
+      </c>
+      <c r="S5" s="32">
+        <v>35.14</v>
+      </c>
+      <c r="T5" s="31">
+        <v>7.5589999999999997E-3</v>
+      </c>
+      <c r="U5" s="33">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="20">
+        <v>400</v>
+      </c>
+      <c r="B6" s="21">
+        <v>7.9900000000000006E-3</v>
+      </c>
+      <c r="C6" s="22">
+        <v>60.89</v>
+      </c>
+      <c r="D6" s="23">
+        <v>8.0160000000000006E-3</v>
+      </c>
+      <c r="E6" s="24">
+        <v>51.27</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="G6" s="24">
+        <v>67.790000000000006</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8.345E-3</v>
+      </c>
+      <c r="I6" s="27">
+        <v>58.62</v>
+      </c>
+      <c r="J6" s="23">
+        <v>9.0159999999999997E-3</v>
+      </c>
+      <c r="K6" s="25">
+        <v>63.96</v>
+      </c>
+      <c r="L6" s="31">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="M6" s="32">
+        <v>63.69</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1.03E-2</v>
+      </c>
+      <c r="O6" s="32">
+        <v>53.08</v>
+      </c>
+      <c r="P6" s="31">
+        <v>9.5040000000000003E-3</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R6" s="31">
+        <v>1.159E-2</v>
+      </c>
+      <c r="S6" s="32">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="T6" s="31">
+        <v>7.5940000000000001E-3</v>
+      </c>
+      <c r="U6" s="33">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="20">
+        <v>500</v>
+      </c>
+      <c r="B7" s="21">
+        <v>7.9489999999999995E-3</v>
+      </c>
+      <c r="C7" s="22">
+        <v>60.58</v>
+      </c>
+      <c r="D7" s="23">
+        <v>8.1040000000000001E-3</v>
+      </c>
+      <c r="E7" s="24">
+        <v>51.84</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="G7" s="24">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="H7" s="23">
+        <v>8.4349999999999998E-3</v>
+      </c>
+      <c r="I7" s="27">
+        <v>59.25</v>
+      </c>
+      <c r="J7" s="23">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="K7" s="25">
+        <v>64.27</v>
+      </c>
+      <c r="L7" s="31">
+        <v>9.0100000000000006E-3</v>
+      </c>
+      <c r="M7" s="32">
+        <v>63.41</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="O7" s="32">
+        <v>52.76</v>
+      </c>
+      <c r="P7" s="31">
+        <v>9.5490000000000002E-3</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>33.96</v>
+      </c>
+      <c r="R7" s="31">
+        <v>1.167E-2</v>
+      </c>
+      <c r="S7" s="32">
+        <v>35.28</v>
+      </c>
+      <c r="T7" s="31">
+        <v>7.607E-3</v>
+      </c>
+      <c r="U7" s="33">
+        <v>39.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="20">
+        <v>600</v>
+      </c>
+      <c r="B8" s="21">
+        <v>8.0319999999999992E-3</v>
+      </c>
+      <c r="C8" s="22">
+        <v>61.21</v>
+      </c>
+      <c r="D8" s="23">
+        <v>8.1449999999999995E-3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>52.1</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1.025E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="H8" s="23">
+        <v>8.3979999999999992E-3</v>
+      </c>
+      <c r="I8" s="27">
+        <v>58.99</v>
+      </c>
+      <c r="J8" s="23">
+        <v>9.0969999999999992E-3</v>
+      </c>
+      <c r="K8" s="25">
+        <v>64.53</v>
+      </c>
+      <c r="L8" s="31">
+        <v>9.0570000000000008E-3</v>
+      </c>
+      <c r="M8" s="32">
+        <v>63.74</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="O8" s="32">
+        <v>52.75</v>
+      </c>
+      <c r="P8" s="31">
+        <v>9.4979999999999995E-3</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>33.78</v>
+      </c>
+      <c r="R8" s="31">
+        <v>1.159E-2</v>
+      </c>
+      <c r="S8" s="32">
+        <v>35.06</v>
+      </c>
+      <c r="T8" s="31">
+        <v>7.659E-3</v>
+      </c>
+      <c r="U8" s="33">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="20">
+        <v>700</v>
+      </c>
+      <c r="B9" s="21">
+        <v>7.9909999999999998E-3</v>
+      </c>
+      <c r="C9" s="22">
+        <v>60.9</v>
+      </c>
+      <c r="D9" s="23">
+        <v>8.1530000000000005E-3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>52.15</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1.025E-2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>67.31</v>
+      </c>
+      <c r="H9" s="23">
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="I9" s="27">
+        <v>58.94</v>
+      </c>
+      <c r="J9" s="23">
+        <v>9.0939999999999997E-3</v>
+      </c>
+      <c r="K9" s="25">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="L9" s="31">
+        <v>8.9980000000000008E-3</v>
+      </c>
+      <c r="M9" s="32">
+        <v>63.32</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1.022E-2</v>
+      </c>
+      <c r="O9" s="32">
+        <v>52.69</v>
+      </c>
+      <c r="P9" s="31">
+        <v>9.469E-3</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>33.68</v>
+      </c>
+      <c r="R9" s="31">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="S9" s="32">
+        <v>35.07</v>
+      </c>
+      <c r="T9" s="31">
+        <v>7.6249999999999998E-3</v>
+      </c>
+      <c r="U9" s="33">
+        <v>39.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="61">
+        <v>0.50419270000000005</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="70">
+        <v>0.69247040000000004</v>
+      </c>
+      <c r="E10" s="71"/>
+      <c r="F10" s="61">
+        <v>0.67874590000000001</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="61">
+        <v>0.58336699999999997</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="61">
+        <v>0.61826159999999997</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="61">
+        <v>0.54710139999999996</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="61">
+        <v>0.43321559999999998</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="61">
+        <v>0.6929109</v>
+      </c>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="61">
+        <v>0.60125010000000001</v>
+      </c>
+      <c r="S10" s="62"/>
+      <c r="T10" s="61">
+        <v>0.63336369999999997</v>
+      </c>
+      <c r="U10" s="65"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="63">
+        <v>7.4139079999999996E-2</v>
+      </c>
+      <c r="C11" s="66"/>
+      <c r="D11" s="72">
+        <v>6.8544190000000005E-2</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="63">
+        <v>7.0021189999999997E-2</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="63">
+        <v>7.0281330000000003E-2</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="63">
+        <v>7.3017899999999997E-2</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="63">
+        <v>8.2539769999999998E-2</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="63">
+        <v>9.3843330000000003E-2</v>
+      </c>
+      <c r="O11" s="64"/>
+      <c r="P11" s="63">
+        <v>8.7645230000000005E-2</v>
+      </c>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="63">
+        <v>0.10673000000000001</v>
+      </c>
+      <c r="S11" s="64"/>
+      <c r="T11" s="63">
+        <v>7.9979529999999993E-2</v>
+      </c>
+      <c r="U11" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8ACCFB-41E9-4A31-8B4B-2F988F6B5B73}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9952,1885 +10130,2168 @@
     <col min="2" max="2" width="78.3984375" customWidth="1"/>
     <col min="3" max="3" width="3" hidden="1" customWidth="1"/>
     <col min="4" max="13" width="11.73046875" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" customWidth="1"/>
-    <col min="15" max="15" width="11.73046875" customWidth="1"/>
-    <col min="16" max="52" width="9.1328125" customWidth="1"/>
+    <col min="14" max="15" width="10.73046875" customWidth="1"/>
+    <col min="16" max="16" width="11.73046875" customWidth="1"/>
+    <col min="17" max="53" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="55" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="5">
         <v>8.5426173197985005</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="74">
         <v>1</v>
       </c>
-      <c r="O2" s="68">
+      <c r="O2" s="5">
+        <f>AVERAGE(D2:M2)</f>
         <v>8.5426173197985005</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="68" t="s">
+      <c r="P2" s="5">
+        <v>8.5426173197985005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="5">
         <v>7.1323330369040496</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="74">
         <v>1</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O63" si="0">AVERAGE(D3:M3)</f>
         <v>7.1323330369040496</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="68" t="s">
+      <c r="P3" s="5">
+        <v>7.1323330369040496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="5">
         <v>7.3346252907616698</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="74">
         <v>1</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="5">
+        <f t="shared" si="0"/>
         <v>7.3346252907616698</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="68" t="s">
+      <c r="P4" s="5">
+        <v>7.3346252907616698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
         <v>12.8326059116455</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="5">
         <v>17.057136859747001</v>
       </c>
-      <c r="M5" s="68">
+      <c r="M5" s="5">
         <v>16.3068047692616</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="74">
         <v>3</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>15.398849180218031</v>
+      </c>
+      <c r="P5" s="5">
         <v>16.3068047692616</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="68" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>13.6931603623841</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="5">
         <v>13.589431557493</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="5">
         <v>17.507144652108099</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="74">
         <v>3</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>14.929912190661733</v>
+      </c>
+      <c r="P6" s="5">
         <v>13.6931603623841</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
         <v>5.5161838643278198</v>
       </c>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="74">
         <v>1</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
         <v>5.5161838643278198</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="68" t="s">
+      <c r="P7" s="5">
+        <v>5.5161838643278198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>7.2682583239945497</v>
       </c>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="74">
         <v>1</v>
       </c>
-      <c r="O8" s="68">
+      <c r="O8" s="5">
+        <f t="shared" si="0"/>
         <v>7.2682583239945497</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="68" t="s">
+      <c r="P8" s="5">
+        <v>7.2682583239945497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>6.5949429498036096</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="74">
         <v>1</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
         <v>6.5949429498036096</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="70" t="s">
+      <c r="P9" s="5">
+        <v>6.5949429498036096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>6.5173504973558298</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="74">
         <v>1</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="5">
+        <f t="shared" si="0"/>
         <v>6.5173504973558298</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="68" t="s">
+      <c r="P10" s="5">
+        <v>6.5173504973558298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
         <v>6.4669962434280501</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="5">
         <v>13.785571519258299</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="74">
         <v>2</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>10.126283881343175</v>
+      </c>
+      <c r="P11" s="5">
         <v>10.1262838813432</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5">
         <v>10.949204717207101</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="5">
         <v>5.6356375207994001</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="74">
         <v>2</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2924211190032509</v>
+      </c>
+      <c r="P12" s="5">
         <v>8.2924211190032704</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5">
         <v>6.9196307146509097</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="5">
         <v>9.6325958929433693</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="74">
         <v>2</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2761133037971391</v>
+      </c>
+      <c r="P13" s="5">
         <v>8.2761133037971408</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>6.2322542076764602</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="74">
         <v>1</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="5">
+        <f t="shared" si="0"/>
         <v>6.2322542076764602</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" s="68" t="s">
+      <c r="P14" s="5">
+        <v>6.2322542076764602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
         <v>7.5285304577040604</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="74">
         <v>1</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
         <v>7.5285304577040604</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="68" t="s">
+      <c r="P15" s="5">
+        <v>7.5285304577040604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="5">
         <v>9.7181195082927694</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="5">
         <v>8.5693802544854805</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="5">
         <v>8.7352686308750993</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="5">
         <v>19.934633857509301</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="5">
         <v>11.967006932321199</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="5">
         <v>9.1080264805663997</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
         <v>9.35446694786941</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="5">
         <v>8.9161211508484506</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68">
+      <c r="M16" s="5"/>
+      <c r="N16" s="74">
         <v>8</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="5">
+        <f t="shared" si="0"/>
+        <v>10.787877970346013</v>
+      </c>
+      <c r="P16" s="5">
         <v>9.2312467142178996</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="68" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>10.215713226068599</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <v>17.2215772009239</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="5">
         <v>24.2082100732821</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="5">
         <v>10.9733728179705</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="5">
         <v>8.3665477843556495</v>
       </c>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>15.6825622709457</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="74">
         <v>6</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="5">
+        <f t="shared" si="0"/>
+        <v>14.444663895591072</v>
+      </c>
+      <c r="P17" s="5">
         <v>13.327967544458099</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="68" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>9.8204323751021096</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="74">
         <v>1</v>
       </c>
-      <c r="O18" s="68">
+      <c r="O18" s="5">
+        <f t="shared" si="0"/>
         <v>9.8204323751021096</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="68" t="s">
+      <c r="P18" s="5">
+        <v>9.8204323751021096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>8.0605444417633496</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="74">
         <v>1</v>
       </c>
-      <c r="O19" s="68">
+      <c r="O19" s="5">
+        <f t="shared" si="0"/>
         <v>8.0605444417633496</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="68" t="s">
+      <c r="P19" s="5">
+        <v>8.0605444417633496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="5">
         <v>6.6139308130217698</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="5">
         <v>20.881187726261</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="5">
         <v>6.5826596847846401</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="74">
         <v>3</v>
       </c>
-      <c r="O20" s="68">
+      <c r="O20" s="5">
+        <f t="shared" si="0"/>
+        <v>11.359259408022469</v>
+      </c>
+      <c r="P20" s="5">
         <v>6.6139308130217698</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="68" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
         <v>6.08261189284545</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="74">
         <v>1</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="5">
+        <f t="shared" si="0"/>
         <v>6.08261189284545</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="68" t="s">
+      <c r="P21" s="5">
+        <v>6.08261189284545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="5">
         <v>6.9450309828199499</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="74">
         <v>1</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="5">
+        <f t="shared" si="0"/>
         <v>6.9450309828199499</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="68" t="s">
+      <c r="P22" s="5">
+        <v>6.9450309828199499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <v>7.7682388250237002</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="74">
         <v>1</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="5">
+        <f t="shared" si="0"/>
         <v>7.7682388250237002</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="68" t="s">
+      <c r="P23" s="5">
+        <v>7.7682388250237002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>8.02726371169571</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="74">
         <v>1</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="5">
+        <f t="shared" si="0"/>
         <v>8.02726371169571</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="68" t="s">
+      <c r="P24" s="5">
+        <v>8.02726371169571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
         <v>8.5644071413341791</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="74">
         <v>1</v>
       </c>
-      <c r="O25" s="68">
+      <c r="O25" s="5">
+        <f t="shared" si="0"/>
         <v>8.5644071413341791</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="68" t="s">
+      <c r="P25" s="5">
+        <v>8.5644071413341791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
         <v>6.8475448875925098</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="5">
         <v>7.1714380324943701</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
         <v>9.3823423591023598</v>
       </c>
-      <c r="N26" s="68">
+      <c r="N26" s="74">
         <v>3</v>
       </c>
-      <c r="O26" s="68">
+      <c r="O26" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8004417597297468</v>
+      </c>
+      <c r="P26" s="5">
         <v>7.1714380324943701</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
         <v>5.9396513616823698</v>
       </c>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="74">
         <v>1</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="5">
+        <f t="shared" si="0"/>
         <v>5.9396513616823698</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="70" t="s">
+      <c r="P27" s="5">
+        <v>5.9396513616823698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
         <v>6.74244070068751</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="74">
         <v>1</v>
       </c>
-      <c r="O28" s="68">
+      <c r="O28" s="5">
+        <f t="shared" si="0"/>
         <v>6.74244070068751</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="68" t="s">
+      <c r="P28" s="5">
+        <v>6.74244070068751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A29" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <v>11.7223149878408</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="5">
         <v>7.2384496704726304</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="74">
         <v>2</v>
       </c>
-      <c r="O29" s="68">
+      <c r="O29" s="5">
+        <f t="shared" si="0"/>
+        <v>9.4803823291567149</v>
+      </c>
+      <c r="P29" s="5">
         <v>9.4803823291567202</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="68">
+      <c r="D30" s="5">
         <v>6.2699055839293703</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="74">
         <v>1</v>
       </c>
-      <c r="O30" s="68">
+      <c r="O30" s="5">
+        <f t="shared" si="0"/>
         <v>6.2699055839293703</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="70" t="s">
+      <c r="P30" s="5">
+        <v>6.2699055839293703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
         <v>6.28737807041054</v>
       </c>
-      <c r="N31" s="68">
+      <c r="N31" s="74">
         <v>1</v>
       </c>
-      <c r="O31" s="68">
+      <c r="O31" s="5">
+        <f t="shared" si="0"/>
         <v>6.28737807041054</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="68" t="s">
+      <c r="P31" s="5">
+        <v>6.28737807041054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
         <v>6.1871588715894399</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="74">
         <v>1</v>
       </c>
-      <c r="O32" s="68">
+      <c r="O32" s="5">
+        <f t="shared" si="0"/>
         <v>6.1871588715894399</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="68" t="s">
+      <c r="P32" s="5">
+        <v>6.1871588715894399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
         <v>7.3012174080540202</v>
       </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
         <v>6.9195905281783698</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="74">
         <v>2</v>
       </c>
-      <c r="O33" s="68">
+      <c r="O33" s="5">
+        <f t="shared" si="0"/>
+        <v>7.110403968116195</v>
+      </c>
+      <c r="P33" s="5">
         <v>7.1104039681162003</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="70" t="s">
+    <row r="34" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5">
         <v>7.9930922781118099</v>
       </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="74">
         <v>1</v>
       </c>
-      <c r="O34" s="68">
+      <c r="O34" s="5">
+        <f t="shared" si="0"/>
         <v>7.9930922781118099</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" s="70" t="s">
+      <c r="P34" s="5">
+        <v>7.9930922781118099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A35" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5">
         <v>7.54146577349215</v>
       </c>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="74">
         <v>1</v>
       </c>
-      <c r="O35" s="68">
+      <c r="O35" s="5">
+        <f t="shared" si="0"/>
         <v>7.54146577349215</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="68" t="s">
+      <c r="P35" s="5">
+        <v>7.54146577349215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
         <v>8.7909821711916507</v>
       </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
         <v>5.4502664800891996</v>
       </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="74">
         <v>2</v>
       </c>
-      <c r="O36" s="68">
+      <c r="O36" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1206243256404251</v>
+      </c>
+      <c r="P36" s="5">
         <v>7.1206243256404296</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A37" s="70" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A37" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
         <v>9.6523137780292707</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="5">
         <v>7.19844431955147</v>
       </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="74">
         <v>2</v>
       </c>
-      <c r="O37" s="68">
+      <c r="O37" s="5">
+        <f t="shared" si="0"/>
         <v>8.4253790487903704</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="70" t="s">
+      <c r="P37" s="5">
+        <v>8.4253790487903704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A38" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
         <v>6.5932266527266199</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="74">
         <v>1</v>
       </c>
-      <c r="O38" s="68">
+      <c r="O38" s="5">
+        <f t="shared" si="0"/>
         <v>6.5932266527266199</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="70" t="s">
+      <c r="P38" s="5">
+        <v>6.5932266527266199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
         <v>6.3710056097879999</v>
       </c>
-      <c r="J39" s="68">
+      <c r="J39" s="5">
         <v>7.1078039700778604</v>
       </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="74">
         <v>2</v>
       </c>
-      <c r="O39" s="68">
+      <c r="O39" s="5">
+        <f t="shared" si="0"/>
         <v>6.7394047899329301</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="68" t="s">
+      <c r="P39" s="5">
+        <v>6.7394047899329301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
         <v>7.1197283708655696</v>
       </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>7.9153174871526302</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="74">
         <v>2</v>
       </c>
-      <c r="O40" s="68">
+      <c r="O40" s="5">
+        <f t="shared" si="0"/>
         <v>7.5175229290091004</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" s="70" t="s">
+      <c r="P40" s="5">
+        <v>7.5175229290091004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
         <v>8.8145275645095005</v>
       </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="74">
         <v>1</v>
       </c>
-      <c r="O41" s="68">
+      <c r="O41" s="5">
+        <f t="shared" si="0"/>
         <v>8.8145275645095005</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="68" t="s">
+      <c r="P41" s="5">
+        <v>8.8145275645095005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
         <v>8.5888012417015709</v>
       </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="74">
         <v>1</v>
       </c>
-      <c r="O42" s="68">
+      <c r="O42" s="5">
+        <f t="shared" si="0"/>
         <v>8.5888012417015709</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A43" s="68" t="s">
+      <c r="P42" s="5">
+        <v>8.5888012417015709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
         <v>7.0167388887079101</v>
       </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="74">
         <v>1</v>
       </c>
-      <c r="O43" s="68">
+      <c r="O43" s="5">
+        <f t="shared" si="0"/>
         <v>7.0167388887079101</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="70" t="s">
+      <c r="P43" s="5">
+        <v>7.0167388887079101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5">
         <v>5.5387815556068896</v>
       </c>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
         <v>6.1087252918111501</v>
       </c>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="74">
         <v>2</v>
       </c>
-      <c r="O44" s="68">
+      <c r="O44" s="5">
+        <f t="shared" si="0"/>
         <v>5.8237534237090198</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="72" t="s">
+      <c r="P44" s="5">
+        <v>5.8237534237090198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="56" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
         <v>10.0006228014458</v>
       </c>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="74">
         <v>1</v>
       </c>
-      <c r="O45" s="68">
+      <c r="O45" s="5">
+        <f t="shared" si="0"/>
         <v>10.0006228014458</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A46" s="68" t="s">
+      <c r="P45" s="5">
+        <v>10.0006228014458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A46" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68" t="s">
+      <c r="B46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
         <v>6.4580200242891204</v>
       </c>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5">
         <v>10.4931637426187</v>
       </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68">
+      <c r="K46" s="5"/>
+      <c r="L46" s="5">
         <v>6.8369171422102903</v>
       </c>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68">
+      <c r="M46" s="5"/>
+      <c r="N46" s="74">
         <v>3</v>
       </c>
-      <c r="O46" s="68">
+      <c r="O46" s="5">
+        <f t="shared" si="0"/>
+        <v>7.9293669697060372</v>
+      </c>
+      <c r="P46" s="5">
         <v>6.8369171422102903</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A47" s="68" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
         <v>8.4733818811769801</v>
       </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="74">
         <v>1</v>
       </c>
-      <c r="O47" s="68">
+      <c r="O47" s="5">
+        <f t="shared" si="0"/>
         <v>8.4733818811769801</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A48" s="68" t="s">
+      <c r="P47" s="5">
+        <v>8.4733818811769801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68" t="s">
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5">
         <v>7.1095676590321197</v>
       </c>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68">
+      <c r="M48" s="5"/>
+      <c r="N48" s="74">
         <v>1</v>
       </c>
-      <c r="O48" s="68">
+      <c r="O48" s="5">
+        <f t="shared" si="0"/>
         <v>7.1095676590321197</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="70" t="s">
+      <c r="P48" s="5">
+        <v>7.1095676590321197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5">
         <v>6.8744507927071101</v>
       </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="74">
         <v>1</v>
       </c>
-      <c r="O49" s="68">
+      <c r="O49" s="5">
+        <f t="shared" si="0"/>
         <v>6.8744507927071101</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A50" s="68" t="s">
+      <c r="P49" s="5">
+        <v>6.8744507927071101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68" t="s">
+      <c r="B50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
         <v>7.6106755570459503</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="74">
         <v>1</v>
       </c>
-      <c r="O50" s="68">
+      <c r="O50" s="5">
+        <f t="shared" si="0"/>
         <v>7.6106755570459503</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A51" s="68" t="s">
+      <c r="P50" s="5">
+        <v>7.6106755570459503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A51" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="68">
+      <c r="D51" s="5">
         <v>6.3224652571773703</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="74">
         <v>1</v>
       </c>
-      <c r="O51" s="68">
+      <c r="O51" s="5">
+        <f t="shared" si="0"/>
         <v>6.3224652571773703</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A52" s="70" t="s">
+      <c r="P51" s="5">
+        <v>6.3224652571773703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70" t="s">
+      <c r="B52" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5">
         <v>5.1419104335276797</v>
       </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68">
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="74">
         <v>1</v>
       </c>
-      <c r="O52" s="68">
+      <c r="O52" s="5">
+        <f t="shared" si="0"/>
         <v>5.1419104335276797</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="68" t="s">
+      <c r="P52" s="5">
+        <v>5.1419104335276797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A53" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68" t="s">
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5">
         <v>9.9001750339800108</v>
       </c>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68">
+      <c r="M53" s="5"/>
+      <c r="N53" s="74">
         <v>1</v>
       </c>
-      <c r="O53" s="68">
+      <c r="O53" s="5">
+        <f t="shared" si="0"/>
         <v>9.9001750339800108</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A54" s="70" t="s">
+      <c r="P53" s="5">
+        <v>9.9001750339800108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A54" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="68" t="s">
+      <c r="B54" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="68">
+      <c r="D54" s="5">
         <v>6.37944793227605</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="74">
         <v>1</v>
       </c>
-      <c r="O54" s="68">
+      <c r="O54" s="5">
+        <f t="shared" si="0"/>
         <v>6.37944793227605</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A55" s="70" t="s">
+      <c r="P54" s="5">
+        <v>6.37944793227605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70" t="s">
+      <c r="B55" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
         <v>7.0214074850388402</v>
       </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="74">
         <v>1</v>
       </c>
-      <c r="O55" s="68">
+      <c r="O55" s="5">
+        <f t="shared" si="0"/>
         <v>7.0214074850388402</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="72" t="s">
+      <c r="P55" s="5">
+        <v>7.0214074850388402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A56" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="68" t="s">
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
         <v>8.2623857394513198</v>
       </c>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="74">
         <v>1</v>
       </c>
-      <c r="O56" s="68">
+      <c r="O56" s="5">
+        <f t="shared" si="0"/>
         <v>8.2623857394513198</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A57" s="68" t="s">
+      <c r="P56" s="5">
+        <v>8.2623857394513198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A57" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68" t="s">
+      <c r="B57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
         <v>9.5151385005899591</v>
       </c>
-      <c r="H57" s="68">
+      <c r="H57" s="5">
         <v>8.3202033297283293</v>
       </c>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
         <v>14.9775122716289</v>
       </c>
-      <c r="L57" s="68">
+      <c r="L57" s="5">
         <v>8.7068380060624495</v>
       </c>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68">
+      <c r="M57" s="5"/>
+      <c r="N57" s="74">
         <v>4</v>
       </c>
-      <c r="O57" s="68">
+      <c r="O57" s="5">
+        <f t="shared" si="0"/>
+        <v>10.379923027002409</v>
+      </c>
+      <c r="P57" s="5">
         <v>9.1109882533262105</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A58" s="68" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="5">
         <v>13.9212781740473</v>
       </c>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5">
         <v>6.0608036743769</v>
       </c>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68">
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="74">
         <v>2</v>
       </c>
-      <c r="O58" s="68">
+      <c r="O58" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9910409242121005</v>
+      </c>
+      <c r="P58" s="5">
         <v>9.9910409242120899</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A59" s="70" t="s">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="68" t="s">
+      <c r="B59" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
         <v>6.8880209545295399</v>
       </c>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
         <v>8.2967771626895406</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68">
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="74">
         <v>2</v>
       </c>
-      <c r="O59" s="68">
+      <c r="O59" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5923990586095407</v>
+      </c>
+      <c r="P59" s="5">
         <v>7.5923990586095398</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="70" t="s">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68">
+      <c r="B60" s="54"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
         <v>10.5773457312471</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="74">
         <v>1</v>
       </c>
-      <c r="O60" s="68">
+      <c r="O60" s="5">
+        <f t="shared" si="0"/>
         <v>10.5773457312471</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="70" t="s">
+      <c r="P60" s="5">
+        <v>10.5773457312471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68">
+      <c r="B61" s="54"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
         <v>7.4152363809225896</v>
       </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="74">
         <v>1</v>
       </c>
-      <c r="O61" s="68">
+      <c r="O61" s="5">
+        <f t="shared" si="0"/>
         <v>7.4152363809225896</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A62" s="70" t="s">
+      <c r="P61" s="5">
+        <v>7.4152363809225896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="70"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68">
+      <c r="B62" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5">
         <v>7.1442928457615302</v>
       </c>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="74">
         <v>1</v>
       </c>
-      <c r="O62" s="68">
+      <c r="O62" s="5">
+        <f t="shared" si="0"/>
         <v>7.1442928457615302</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A63" s="70" t="s">
+      <c r="P62" s="5">
+        <v>7.1442928457615302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68">
+      <c r="B63" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52">
         <v>7.3733523406944999</v>
       </c>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68">
+      <c r="H63" s="52"/>
+      <c r="I63" s="52">
         <v>5.6029227253928298</v>
       </c>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="68"/>
-      <c r="N63" s="68">
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52">
         <v>2</v>
       </c>
-      <c r="O63" s="68">
+      <c r="O63" s="52">
+        <f t="shared" si="0"/>
+        <v>6.4881375330436644</v>
+      </c>
+      <c r="P63" s="52">
         <v>6.4881375330436599</v>
       </c>
     </row>
@@ -11838,4 +12299,2190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A9D570-AB35-4626-B739-42CADC87FAE7}">
+  <dimension ref="A1:P63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="55.73046875" customWidth="1"/>
+    <col min="2" max="2" width="78.3984375" customWidth="1"/>
+    <col min="3" max="3" width="3" hidden="1" customWidth="1"/>
+    <col min="4" max="13" width="11.73046875" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.73046875" customWidth="1"/>
+    <col min="16" max="16" width="11.73046875" customWidth="1"/>
+    <col min="17" max="53" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>12.8326059116455</v>
+      </c>
+      <c r="L2" s="5">
+        <v>17.057136859747001</v>
+      </c>
+      <c r="M2" s="5">
+        <v>16.3068047692616</v>
+      </c>
+      <c r="N2" s="74">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5">
+        <f>AVERAGE(D2:M2)</f>
+        <v>15.398849180218031</v>
+      </c>
+      <c r="P2" s="5">
+        <v>16.3068047692616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>13.6931603623841</v>
+      </c>
+      <c r="L3" s="5">
+        <v>13.589431557493</v>
+      </c>
+      <c r="M3" s="5">
+        <v>17.507144652108099</v>
+      </c>
+      <c r="N3" s="74">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <f>AVERAGE(D3:M3)</f>
+        <v>14.929912190661733</v>
+      </c>
+      <c r="P3" s="5">
+        <v>13.6931603623841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>10.215713226068599</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>17.2215772009239</v>
+      </c>
+      <c r="I4" s="5">
+        <v>24.2082100732821</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10.9733728179705</v>
+      </c>
+      <c r="K4" s="5">
+        <v>8.3665477843556495</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>15.6825622709457</v>
+      </c>
+      <c r="N4" s="74">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5">
+        <f>AVERAGE(D4:M4)</f>
+        <v>14.444663895591072</v>
+      </c>
+      <c r="P4" s="5">
+        <v>13.327967544458099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.6139308130217698</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20.881187726261</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6.5826596847846401</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="74">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <f>AVERAGE(D5:M5)</f>
+        <v>11.359259408022469</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6.6139308130217698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9.7181195082927694</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.5693802544854805</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8.7352686308750993</v>
+      </c>
+      <c r="G6" s="5">
+        <v>19.934633857509301</v>
+      </c>
+      <c r="H6" s="5">
+        <v>11.967006932321199</v>
+      </c>
+      <c r="I6" s="5">
+        <v>9.1080264805663997</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>9.35446694786941</v>
+      </c>
+      <c r="L6" s="5">
+        <v>8.9161211508484506</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="74">
+        <v>8</v>
+      </c>
+      <c r="O6" s="5">
+        <f>AVERAGE(D6:M6)</f>
+        <v>10.787877970346013</v>
+      </c>
+      <c r="P6" s="5">
+        <v>9.2312467142178996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>9.5151385005899591</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8.3202033297283293</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>14.9775122716289</v>
+      </c>
+      <c r="L7" s="5">
+        <v>8.7068380060624495</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="74">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <f>AVERAGE(D7:M7)</f>
+        <v>10.379923027002409</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9.1109882533262105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>6.4669962434280501</v>
+      </c>
+      <c r="M8" s="5">
+        <v>13.785571519258299</v>
+      </c>
+      <c r="N8" s="74">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <f>AVERAGE(D8:M8)</f>
+        <v>10.126283881343175</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10.1262838813432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>10.0006228014458</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="74">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <f>AVERAGE(D9:M9)</f>
+        <v>10.0006228014458</v>
+      </c>
+      <c r="P9" s="5">
+        <v>10.0006228014458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5">
+        <v>13.9212781740473</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>6.0608036743769</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="74">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <f>AVERAGE(D10:M10)</f>
+        <v>9.9910409242121005</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9.9910409242120899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5">
+        <v>9.9001750339800108</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="74">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <f>AVERAGE(D11:M11)</f>
+        <v>9.9001750339800108</v>
+      </c>
+      <c r="P11" s="5">
+        <v>9.9001750339800108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>9.8204323751021096</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="74">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <f>AVERAGE(D12:M12)</f>
+        <v>9.8204323751021096</v>
+      </c>
+      <c r="P12" s="5">
+        <v>9.8204323751021096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>11.7223149878408</v>
+      </c>
+      <c r="F13" s="5">
+        <v>7.2384496704726304</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="74">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
+        <f>AVERAGE(D13:M13)</f>
+        <v>9.4803823291567149</v>
+      </c>
+      <c r="P13" s="5">
+        <v>9.4803823291567202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>8.8145275645095005</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="74">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <f>AVERAGE(D14:M14)</f>
+        <v>8.8145275645095005</v>
+      </c>
+      <c r="P14" s="5">
+        <v>8.8145275645095005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>8.5888012417015709</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="74">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <f>AVERAGE(D15:M15)</f>
+        <v>8.5888012417015709</v>
+      </c>
+      <c r="P15" s="5">
+        <v>8.5888012417015709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>8.5644071413341791</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="74">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <f>AVERAGE(D16:M16)</f>
+        <v>8.5644071413341791</v>
+      </c>
+      <c r="P16" s="5">
+        <v>8.5644071413341791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8.5426173197985005</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="74">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <f>AVERAGE(D17:M17)</f>
+        <v>8.5426173197985005</v>
+      </c>
+      <c r="P17" s="5">
+        <v>8.5426173197985005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>8.4733818811769801</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="74">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <f>AVERAGE(D18:M18)</f>
+        <v>8.4733818811769801</v>
+      </c>
+      <c r="P18" s="5">
+        <v>8.4733818811769801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>9.6523137780292707</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7.19844431955147</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="74">
+        <v>2</v>
+      </c>
+      <c r="O19" s="5">
+        <f>AVERAGE(D19:M19)</f>
+        <v>8.4253790487903704</v>
+      </c>
+      <c r="P19" s="5">
+        <v>8.4253790487903704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>10.949204717207101</v>
+      </c>
+      <c r="M20" s="5">
+        <v>5.6356375207994001</v>
+      </c>
+      <c r="N20" s="74">
+        <v>2</v>
+      </c>
+      <c r="O20" s="5">
+        <f>AVERAGE(D20:M20)</f>
+        <v>8.2924211190032509</v>
+      </c>
+      <c r="P20" s="5">
+        <v>8.2924211190032704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>6.9196307146509097</v>
+      </c>
+      <c r="M21" s="5">
+        <v>9.6325958929433693</v>
+      </c>
+      <c r="N21" s="74">
+        <v>2</v>
+      </c>
+      <c r="O21" s="5">
+        <f>AVERAGE(D21:M21)</f>
+        <v>8.2761133037971391</v>
+      </c>
+      <c r="P21" s="5">
+        <v>8.2761133037971408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
+        <v>8.2623857394513198</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="74">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <f>AVERAGE(D22:M22)</f>
+        <v>8.2623857394513198</v>
+      </c>
+      <c r="P22" s="5">
+        <v>8.2623857394513198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>8.0605444417633496</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="74">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <f>AVERAGE(D23:M23)</f>
+        <v>8.0605444417633496</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8.0605444417633496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A24" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>8.02726371169571</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="74">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <f>AVERAGE(D24:M24)</f>
+        <v>8.02726371169571</v>
+      </c>
+      <c r="P24" s="5">
+        <v>8.02726371169571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <v>7.9930922781118099</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="74">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <f>AVERAGE(D25:M25)</f>
+        <v>7.9930922781118099</v>
+      </c>
+      <c r="P25" s="5">
+        <v>7.9930922781118099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A26" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>6.4580200242891204</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <v>10.4931637426187</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <v>6.8369171422102903</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="74">
+        <v>3</v>
+      </c>
+      <c r="O26" s="5">
+        <f>AVERAGE(D26:M26)</f>
+        <v>7.9293669697060372</v>
+      </c>
+      <c r="P26" s="5">
+        <v>6.8369171422102903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>6.8475448875925098</v>
+      </c>
+      <c r="J27" s="5">
+        <v>7.1714380324943701</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>9.3823423591023598</v>
+      </c>
+      <c r="N27" s="74">
+        <v>3</v>
+      </c>
+      <c r="O27" s="5">
+        <f>AVERAGE(D27:M27)</f>
+        <v>7.8004417597297468</v>
+      </c>
+      <c r="P27" s="5">
+        <v>7.1714380324943701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A28" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <v>7.7682388250237002</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="74">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <f>AVERAGE(D28:M28)</f>
+        <v>7.7682388250237002</v>
+      </c>
+      <c r="P28" s="5">
+        <v>7.7682388250237002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>7.6106755570459503</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="74">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <f>AVERAGE(D29:M29)</f>
+        <v>7.6106755570459503</v>
+      </c>
+      <c r="P29" s="5">
+        <v>7.6106755570459503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A30" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5">
+        <v>7.54146577349215</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="74">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
+        <f>AVERAGE(D30:M30)</f>
+        <v>7.54146577349215</v>
+      </c>
+      <c r="P30" s="5">
+        <v>7.54146577349215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A31" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <v>7.5285304577040604</v>
+      </c>
+      <c r="N31" s="74">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
+        <f>AVERAGE(D31:M31)</f>
+        <v>7.5285304577040604</v>
+      </c>
+      <c r="P31" s="5">
+        <v>7.5285304577040604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <v>7.1197283708655696</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5">
+        <v>7.9153174871526302</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="74">
+        <v>2</v>
+      </c>
+      <c r="O32" s="5">
+        <f>AVERAGE(D32:M32)</f>
+        <v>7.5175229290091004</v>
+      </c>
+      <c r="P32" s="5">
+        <v>7.5175229290091004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A33" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7.3346252907616698</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="74">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <f>AVERAGE(D33:M33)</f>
+        <v>7.3346252907616698</v>
+      </c>
+      <c r="P33" s="5">
+        <v>7.3346252907616698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A34" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
+        <v>7.2682583239945497</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="74">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <f>AVERAGE(D34:M34)</f>
+        <v>7.2682583239945497</v>
+      </c>
+      <c r="P34" s="5">
+        <v>7.2682583239945497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <v>7.1442928457615302</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="74">
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <f>AVERAGE(D35:M35)</f>
+        <v>7.1442928457615302</v>
+      </c>
+      <c r="P35" s="5">
+        <v>7.1442928457615302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A36" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>7.1323330369040496</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="74">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <f>AVERAGE(D36:M36)</f>
+        <v>7.1323330369040496</v>
+      </c>
+      <c r="P36" s="5">
+        <v>7.1323330369040496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5">
+        <v>8.7909821711916507</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5">
+        <v>5.4502664800891996</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="74">
+        <v>2</v>
+      </c>
+      <c r="O37" s="5">
+        <f>AVERAGE(D37:M37)</f>
+        <v>7.1206243256404251</v>
+      </c>
+      <c r="P37" s="5">
+        <v>7.1206243256404296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5">
+        <v>7.3012174080540202</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
+        <v>6.9195905281783698</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="74">
+        <v>2</v>
+      </c>
+      <c r="O38" s="5">
+        <f>AVERAGE(D38:M38)</f>
+        <v>7.110403968116195</v>
+      </c>
+      <c r="P38" s="5">
+        <v>7.1104039681162003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A39" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5">
+        <v>7.1095676590321197</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="74">
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <f>AVERAGE(D39:M39)</f>
+        <v>7.1095676590321197</v>
+      </c>
+      <c r="P39" s="5">
+        <v>7.1095676590321197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A40" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
+        <v>7.0214074850388402</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="74">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
+        <f>AVERAGE(D40:M40)</f>
+        <v>7.0214074850388402</v>
+      </c>
+      <c r="P40" s="5">
+        <v>7.0214074850388402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A41" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <v>7.0167388887079101</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="74">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
+        <f>AVERAGE(D41:M41)</f>
+        <v>7.0167388887079101</v>
+      </c>
+      <c r="P41" s="5">
+        <v>7.0167388887079101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A42" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6.9450309828199499</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="74">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <f>AVERAGE(D42:M42)</f>
+        <v>6.9450309828199499</v>
+      </c>
+      <c r="P42" s="5">
+        <v>6.9450309828199499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <v>6.8744507927071101</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="74">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <f>AVERAGE(D43:M43)</f>
+        <v>6.8744507927071101</v>
+      </c>
+      <c r="P43" s="5">
+        <v>6.8744507927071101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A44" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
+        <v>6.74244070068751</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="74">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <f>AVERAGE(D44:M44)</f>
+        <v>6.74244070068751</v>
+      </c>
+      <c r="P44" s="5">
+        <v>6.74244070068751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A45" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>6.3710056097879999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7.1078039700778604</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="74">
+        <v>2</v>
+      </c>
+      <c r="O45" s="5">
+        <f>AVERAGE(D45:M45)</f>
+        <v>6.7394047899329301</v>
+      </c>
+      <c r="P45" s="5">
+        <v>6.7394047899329301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5">
+        <v>6.5949429498036096</v>
+      </c>
+      <c r="N46" s="74">
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <f>AVERAGE(D46:M46)</f>
+        <v>6.5949429498036096</v>
+      </c>
+      <c r="P46" s="5">
+        <v>6.5949429498036096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A47" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
+        <v>6.5932266527266199</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="74">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <f>AVERAGE(D47:M47)</f>
+        <v>6.5932266527266199</v>
+      </c>
+      <c r="P47" s="5">
+        <v>6.5932266527266199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A48" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5">
+        <v>6.5173504973558298</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="74">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <f>AVERAGE(D48:M48)</f>
+        <v>6.5173504973558298</v>
+      </c>
+      <c r="P48" s="5">
+        <v>6.5173504973558298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A49" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="5">
+        <v>6.37944793227605</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="74">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5">
+        <f>AVERAGE(D49:M49)</f>
+        <v>6.37944793227605</v>
+      </c>
+      <c r="P49" s="5">
+        <v>6.37944793227605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A50" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.3224652571773703</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="74">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5">
+        <f>AVERAGE(D50:M50)</f>
+        <v>6.3224652571773703</v>
+      </c>
+      <c r="P50" s="5">
+        <v>6.3224652571773703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5">
+        <v>6.28737807041054</v>
+      </c>
+      <c r="N51" s="74">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <f>AVERAGE(D51:M51)</f>
+        <v>6.28737807041054</v>
+      </c>
+      <c r="P51" s="5">
+        <v>6.28737807041054</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A52" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6.2699055839293703</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="74">
+        <v>1</v>
+      </c>
+      <c r="O52" s="5">
+        <f>AVERAGE(D52:M52)</f>
+        <v>6.2699055839293703</v>
+      </c>
+      <c r="P52" s="5">
+        <v>6.2699055839293703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
+        <v>6.2322542076764602</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="74">
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <f>AVERAGE(D53:M53)</f>
+        <v>6.2322542076764602</v>
+      </c>
+      <c r="P53" s="5">
+        <v>6.2322542076764602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5">
+        <v>6.1871588715894399</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="74">
+        <v>1</v>
+      </c>
+      <c r="O54" s="5">
+        <f>AVERAGE(D54:M54)</f>
+        <v>6.1871588715894399</v>
+      </c>
+      <c r="P54" s="5">
+        <v>6.1871588715894399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5">
+        <v>6.08261189284545</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="74">
+        <v>1</v>
+      </c>
+      <c r="O55" s="5">
+        <f>AVERAGE(D55:M55)</f>
+        <v>6.08261189284545</v>
+      </c>
+      <c r="P55" s="5">
+        <v>6.08261189284545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
+        <v>5.9396513616823698</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="74">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5">
+        <f>AVERAGE(D56:M56)</f>
+        <v>5.9396513616823698</v>
+      </c>
+      <c r="P56" s="5">
+        <v>5.9396513616823698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5">
+        <v>5.5387815556068896</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5">
+        <v>6.1087252918111501</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="74">
+        <v>2</v>
+      </c>
+      <c r="O57" s="5">
+        <f>AVERAGE(D57:M57)</f>
+        <v>5.8237534237090198</v>
+      </c>
+      <c r="P57" s="5">
+        <v>5.8237534237090198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A58" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <v>5.5161838643278198</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="74">
+        <v>1</v>
+      </c>
+      <c r="O58" s="5">
+        <f>AVERAGE(D58:M58)</f>
+        <v>5.5161838643278198</v>
+      </c>
+      <c r="P58" s="5">
+        <v>5.5161838643278198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
+        <v>6.8880209545295399</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
+        <v>8.2967771626895406</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="74">
+        <v>2</v>
+      </c>
+      <c r="O59" s="5">
+        <f>AVERAGE(D59:M59)</f>
+        <v>7.5923990586095407</v>
+      </c>
+      <c r="P59" s="5">
+        <v>7.5923990586095398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <v>10.5773457312471</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="74">
+        <v>1</v>
+      </c>
+      <c r="O60" s="5">
+        <f>AVERAGE(D60:M60)</f>
+        <v>10.5773457312471</v>
+      </c>
+      <c r="P60" s="5">
+        <v>10.5773457312471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <v>7.4152363809225896</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="74">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5">
+        <f>AVERAGE(D61:M61)</f>
+        <v>7.4152363809225896</v>
+      </c>
+      <c r="P61" s="5">
+        <v>7.4152363809225896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A62" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5">
+        <v>5.1419104335276797</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="74">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5">
+        <f>AVERAGE(D62:M62)</f>
+        <v>5.1419104335276797</v>
+      </c>
+      <c r="P62" s="5">
+        <v>5.1419104335276797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52">
+        <v>7.3733523406944999</v>
+      </c>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52">
+        <v>5.6029227253928298</v>
+      </c>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52">
+        <v>2</v>
+      </c>
+      <c r="O63" s="52">
+        <f t="shared" ref="O3:O63" si="0">AVERAGE(D63:M63)</f>
+        <v>6.4881375330436644</v>
+      </c>
+      <c r="P63" s="52">
+        <v>6.4881375330436599</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P62">
+    <sortCondition descending="1" ref="O1:O63"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>